--- a/medicine/Enfance/Caroline_Allard/Caroline_Allard.xlsx
+++ b/medicine/Enfance/Caroline_Allard/Caroline_Allard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Allard, née le 26 septembre 1971 à Saint-Roch-de-l'Achigan, est une romancière et scénariste québécoise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est l'autrice des Chroniques d'une mère indigne, un blog d’abord, puis un roman et une websérie sur la maternité et la vie de famille.
 Elle a également fait paraître Univers coiffure (2012), un roman humoristique, et La Reine Et-Que-Ça-Saute (2014), un ouvrage de littérature d'enfance et de jeunesse.
@@ -546,18 +560,159 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Les Chroniques d'une mère indigne 1 : Une vie sale parsemée de couches bien remplies, à moins que ce ne soit l'inverse ?, Éditions du Septentrion, 2007 ; réédition, Paris, Porc-éPic, 2009  (ISBN 978-2-84736-420-0)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Chroniques d'une mère indigne 1 : Une vie sale parsemée de couches bien remplies, à moins que ce ne soit l'inverse ?, Éditions du Septentrion, 2007 ; réédition, Paris, Porc-éPic, 2009  (ISBN 978-2-84736-420-0)
 Les Chroniques d'une mère indigne 2 : Décapons le quotidien, une couche à la fois , Éditions Point par Point, 2009
-Universel coiffure, Éditions Coups de tête, 2012
-Littérature d'enfance et de jeunesse
-La Reine Et-Que-Ça-Saute, Éditions Fonfon, 2014
-Bande dessinée
-Les Chroniques d'une fille indigne : J'ai des parents de base, Hamac, 2013
-Autres publications
-Pour en finir avec le sexe, Hamac, 2011
-Scénario de web série
-2009-2010 : Les Chroniques d'une mère indigne, web-série québécoise en 26 épisodes de 2 à 6 minutes</t>
+Universel coiffure, Éditions Coups de tête, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Reine Et-Que-Ça-Saute, Éditions Fonfon, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Chroniques d'une fille indigne : J'ai des parents de base, Hamac, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour en finir avec le sexe, Hamac, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Allard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénario de web série</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2009-2010 : Les Chroniques d'une mère indigne, web-série québécoise en 26 épisodes de 2 à 6 minutes</t>
         </is>
       </c>
     </row>
